--- a/study_plan.xlsx
+++ b/study_plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cevat\Desktop\assignment\Study-Plan-Optimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC1B79C-7C76-4968-B534-462A845DA20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087991D0-44F7-43E3-9911-6B6F6B8ADC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="3672" windowWidth="23256" windowHeight="12456" xr2:uid="{4083871D-627C-433C-8B17-E6F26D87DB11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4083871D-627C-433C-8B17-E6F26D87DB11}"/>
   </bookViews>
   <sheets>
     <sheet name="Activities" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Activity</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Semester Start Date</t>
+  </si>
+  <si>
+    <t>Earliest Start Week</t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0C5FA0-D3C5-4850-8201-23CDA5D9B976}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +500,7 @@
     <col min="1" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +513,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -524,8 +530,11 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -538,8 +547,11 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -552,8 +564,11 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -566,8 +581,11 @@
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -580,8 +598,11 @@
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -593,6 +614,9 @@
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -605,12 +629,12 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">

--- a/study_plan.xlsx
+++ b/study_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cevat\Desktop\assignment\Study-Plan-Optimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087991D0-44F7-43E3-9911-6B6F6B8ADC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A371EDBF-A5F8-46C9-B8B8-0B0E22A7D9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4083871D-627C-433C-8B17-E6F26D87DB11}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4083871D-627C-433C-8B17-E6F26D87DB11}"/>
   </bookViews>
   <sheets>
     <sheet name="Activities" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Activity</t>
   </si>
@@ -52,36 +52,18 @@
     <t>Due Day</t>
   </si>
   <si>
-    <t>Project1</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>Project2</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>Midterm</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>Article Review</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -101,6 +83,63 @@
   </si>
   <si>
     <t>Earliest Start Week</t>
+  </si>
+  <si>
+    <t>Logistics - 1-4th week review</t>
+  </si>
+  <si>
+    <t>Logistics - 4-8th week review</t>
+  </si>
+  <si>
+    <t>Logistics - Midterm</t>
+  </si>
+  <si>
+    <t>Logistics - 8-10th week review</t>
+  </si>
+  <si>
+    <t>Logistics - 10-12th week review</t>
+  </si>
+  <si>
+    <t>Logistics - 12-14th week review</t>
+  </si>
+  <si>
+    <t>Logistics - Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mat. Modelling - Project Report 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mat. Modelling - Project Report 2 &amp; Presentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mat. Modelling - Assignment 1 </t>
+  </si>
+  <si>
+    <t>Mat. Modelling - Assignment 2</t>
+  </si>
+  <si>
+    <t>Mat. Modelling - Assignment 3</t>
+  </si>
+  <si>
+    <t>Mat. Modelling - Midterm</t>
+  </si>
+  <si>
+    <t>Mat. Modelling - Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.C. Analytical Methods - Project Proposal </t>
+  </si>
+  <si>
+    <t>S.C. Analytical Methods - Midterm</t>
+  </si>
+  <si>
+    <t>S.C. Analytical Methods - Final</t>
+  </si>
+  <si>
+    <t>S.C. Analytical Methods - Paper Review Presentation</t>
+  </si>
+  <si>
+    <t>S.C. Analytical Methods - Project Proposal 2</t>
   </si>
 </sst>
 </file>
@@ -489,18 +528,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0C5FA0-D3C5-4850-8201-23CDA5D9B976}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,109 +554,354 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>30</v>
-      </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C17" s="2">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
         <v>14</v>
       </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -626,11 +911,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D6C55F-B746-4C24-B345-B373F43BCF81}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -639,237 +922,402 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
         <v>6</v>
       </c>
       <c r="H5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
         <v>6</v>
       </c>
       <c r="H7" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
       </c>
       <c r="F8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
       <c r="F9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2">
         <v>6</v>
       </c>
       <c r="H9" s="2">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -880,9 +1328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDCC560-F6B4-4B6B-B388-51437642144D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -891,15 +1337,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3">
         <v>45566</v>
